--- a/file mẫu tải dữ liệu công 1.xlsx
+++ b/file mẫu tải dữ liệu công 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\attendance_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A198687-141C-4915-B4A2-57CBBAFBE9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76437D5A-FD47-4C5C-8E1D-5A40E749E012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="77">
   <si>
     <t>Mã nv</t>
   </si>
@@ -253,10 +253,7 @@
     <t>010/12/2025</t>
   </si>
   <si>
-    <t>110/12/2025</t>
-  </si>
-  <si>
-    <t>210/12/2025</t>
+    <t>OFF</t>
   </si>
 </sst>
 </file>
@@ -626,11 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L184" sqref="L184"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="E244" sqref="E244:F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -729,7 +725,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -769,7 +765,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -789,7 +785,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -809,7 +805,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -829,7 +825,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -849,7 +845,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -869,7 +865,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -889,7 +885,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -909,7 +905,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -949,7 +945,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -969,7 +965,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -989,7 +985,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1009,7 +1005,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1029,7 +1025,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1049,7 +1045,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1069,7 +1065,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1089,7 +1085,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1129,7 +1125,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1149,7 +1145,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1169,7 +1165,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1189,7 +1185,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
@@ -1209,7 +1205,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -1229,7 +1225,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1249,7 +1245,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1269,7 +1265,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -1309,7 +1305,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1329,7 +1325,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -1349,7 +1345,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1369,7 +1365,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -1389,7 +1385,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -1409,7 +1405,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -1429,7 +1425,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
@@ -1449,7 +1445,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -1489,7 +1485,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>30</v>
       </c>
@@ -1509,7 +1505,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>32</v>
       </c>
@@ -1529,7 +1525,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>34</v>
       </c>
@@ -1549,7 +1545,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>36</v>
       </c>
@@ -1569,7 +1565,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
@@ -1589,7 +1585,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>40</v>
       </c>
@@ -1609,7 +1605,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
@@ -1629,7 +1625,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>26</v>
       </c>
@@ -1669,7 +1665,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>30</v>
       </c>
@@ -1689,7 +1685,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
@@ -1709,7 +1705,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>34</v>
       </c>
@@ -1729,7 +1725,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>36</v>
       </c>
@@ -1749,7 +1745,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>38</v>
       </c>
@@ -1769,7 +1765,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
@@ -1789,7 +1785,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
@@ -1802,10 +1798,12 @@
       <c r="D56" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>26</v>
       </c>
@@ -1818,7 +1816,9 @@
       <c r="D57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1834,10 +1834,12 @@
       <c r="D58" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>30</v>
       </c>
@@ -1850,10 +1852,12 @@
       <c r="D59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>32</v>
       </c>
@@ -1866,10 +1870,12 @@
       <c r="D60" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>34</v>
       </c>
@@ -1882,10 +1888,12 @@
       <c r="D61" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
@@ -1898,10 +1906,12 @@
       <c r="D62" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>38</v>
       </c>
@@ -1914,10 +1924,12 @@
       <c r="D63" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>40</v>
       </c>
@@ -1930,10 +1942,12 @@
       <c r="D64" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>22</v>
       </c>
@@ -1953,7 +1967,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>26</v>
       </c>
@@ -1993,7 +2007,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>30</v>
       </c>
@@ -2013,7 +2027,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>32</v>
       </c>
@@ -2033,7 +2047,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>34</v>
       </c>
@@ -2053,7 +2067,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>36</v>
       </c>
@@ -2073,7 +2087,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>38</v>
       </c>
@@ -2093,7 +2107,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>40</v>
       </c>
@@ -2113,7 +2127,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>22</v>
       </c>
@@ -2133,7 +2147,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>26</v>
       </c>
@@ -2173,7 +2187,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>30</v>
       </c>
@@ -2193,7 +2207,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>32</v>
       </c>
@@ -2213,7 +2227,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -2233,7 +2247,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>36</v>
       </c>
@@ -2253,7 +2267,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>38</v>
       </c>
@@ -2273,7 +2287,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>40</v>
       </c>
@@ -2293,7 +2307,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>22</v>
       </c>
@@ -2313,7 +2327,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>26</v>
       </c>
@@ -2353,7 +2367,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>30</v>
       </c>
@@ -2373,7 +2387,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>32</v>
       </c>
@@ -2393,7 +2407,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>34</v>
       </c>
@@ -2413,7 +2427,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>36</v>
       </c>
@@ -2433,7 +2447,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>38</v>
       </c>
@@ -2453,7 +2467,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>40</v>
       </c>
@@ -2473,7 +2487,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>22</v>
       </c>
@@ -2493,7 +2507,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>26</v>
       </c>
@@ -2533,7 +2547,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -2553,7 +2567,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>32</v>
       </c>
@@ -2573,7 +2587,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>34</v>
       </c>
@@ -2593,7 +2607,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>36</v>
       </c>
@@ -2613,7 +2627,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>38</v>
       </c>
@@ -2633,7 +2647,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>40</v>
       </c>
@@ -2653,7 +2667,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>22</v>
       </c>
@@ -2673,7 +2687,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>26</v>
       </c>
@@ -2713,7 +2727,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>30</v>
       </c>
@@ -2733,7 +2747,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>32</v>
       </c>
@@ -2753,7 +2767,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>34</v>
       </c>
@@ -2773,7 +2787,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>36</v>
       </c>
@@ -2793,7 +2807,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>38</v>
       </c>
@@ -2813,7 +2827,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>40</v>
       </c>
@@ -2833,7 +2847,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>22</v>
       </c>
@@ -2853,7 +2867,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>26</v>
       </c>
@@ -2893,7 +2907,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>30</v>
       </c>
@@ -2913,7 +2927,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>32</v>
       </c>
@@ -2933,7 +2947,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>34</v>
       </c>
@@ -2953,7 +2967,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>36</v>
       </c>
@@ -2973,7 +2987,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>38</v>
       </c>
@@ -2993,7 +3007,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>40</v>
       </c>
@@ -3013,7 +3027,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>22</v>
       </c>
@@ -3026,10 +3040,12 @@
       <c r="D119" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E119" s="3"/>
+      <c r="E119" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>26</v>
       </c>
@@ -3042,7 +3058,9 @@
       <c r="D120" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E120" s="3"/>
+      <c r="E120" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3058,10 +3076,12 @@
       <c r="D121" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E121" s="3"/>
+      <c r="E121" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>30</v>
       </c>
@@ -3074,10 +3094,12 @@
       <c r="D122" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E122" s="3"/>
+      <c r="E122" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>32</v>
       </c>
@@ -3090,10 +3112,12 @@
       <c r="D123" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E123" s="3"/>
+      <c r="E123" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>34</v>
       </c>
@@ -3106,10 +3130,12 @@
       <c r="D124" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E124" s="3"/>
+      <c r="E124" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>36</v>
       </c>
@@ -3122,10 +3148,12 @@
       <c r="D125" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E125" s="3"/>
+      <c r="E125" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>38</v>
       </c>
@@ -3138,10 +3166,12 @@
       <c r="D126" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E126" s="3"/>
+      <c r="E126" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>40</v>
       </c>
@@ -3154,10 +3184,12 @@
       <c r="D127" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E127" s="3"/>
+      <c r="E127" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>22</v>
       </c>
@@ -3177,7 +3209,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>26</v>
       </c>
@@ -3217,7 +3249,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>30</v>
       </c>
@@ -3237,7 +3269,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>32</v>
       </c>
@@ -3257,7 +3289,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>34</v>
       </c>
@@ -3277,7 +3309,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>36</v>
       </c>
@@ -3297,7 +3329,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>38</v>
       </c>
@@ -3317,7 +3349,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>40</v>
       </c>
@@ -3337,7 +3369,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>22</v>
       </c>
@@ -3357,7 +3389,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>26</v>
       </c>
@@ -3397,7 +3429,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>30</v>
       </c>
@@ -3417,7 +3449,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>32</v>
       </c>
@@ -3437,7 +3469,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>34</v>
       </c>
@@ -3457,7 +3489,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>36</v>
       </c>
@@ -3477,7 +3509,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>38</v>
       </c>
@@ -3497,7 +3529,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>40</v>
       </c>
@@ -3517,7 +3549,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>22</v>
       </c>
@@ -3537,7 +3569,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>26</v>
       </c>
@@ -3577,7 +3609,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>30</v>
       </c>
@@ -3597,7 +3629,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>32</v>
       </c>
@@ -3617,7 +3649,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>34</v>
       </c>
@@ -3637,7 +3669,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>36</v>
       </c>
@@ -3657,7 +3689,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>38</v>
       </c>
@@ -3677,7 +3709,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>40</v>
       </c>
@@ -3697,7 +3729,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>22</v>
       </c>
@@ -3717,7 +3749,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>26</v>
       </c>
@@ -3744,8 +3776,8 @@
       <c r="B157" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>76</v>
+      <c r="C157" s="4">
+        <v>46009</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>47</v>
@@ -3757,7 +3789,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>30</v>
       </c>
@@ -3777,7 +3809,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>32</v>
       </c>
@@ -3797,7 +3829,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>34</v>
       </c>
@@ -3817,7 +3849,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>36</v>
       </c>
@@ -3837,7 +3869,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>38</v>
       </c>
@@ -3857,7 +3889,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>40</v>
       </c>
@@ -3877,7 +3909,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>22</v>
       </c>
@@ -3897,7 +3929,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>26</v>
       </c>
@@ -3937,7 +3969,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>30</v>
       </c>
@@ -3957,7 +3989,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>32</v>
       </c>
@@ -3977,7 +4009,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>34</v>
       </c>
@@ -3997,7 +4029,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>36</v>
       </c>
@@ -4017,7 +4049,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>38</v>
       </c>
@@ -4037,7 +4069,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>40</v>
       </c>
@@ -4057,7 +4089,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>22</v>
       </c>
@@ -4077,7 +4109,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>26</v>
       </c>
@@ -4117,7 +4149,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>30</v>
       </c>
@@ -4137,7 +4169,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>32</v>
       </c>
@@ -4157,7 +4189,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>34</v>
       </c>
@@ -4177,7 +4209,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>36</v>
       </c>
@@ -4197,7 +4229,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>38</v>
       </c>
@@ -4217,7 +4249,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>40</v>
       </c>
@@ -4237,7 +4269,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>22</v>
       </c>
@@ -4250,10 +4282,12 @@
       <c r="D182" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E182" s="2"/>
+      <c r="E182" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>26</v>
       </c>
@@ -4266,7 +4300,9 @@
       <c r="D183" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E183" s="2"/>
+      <c r="E183" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4282,10 +4318,12 @@
       <c r="D184" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E184" s="2"/>
+      <c r="E184" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>30</v>
       </c>
@@ -4298,10 +4336,12 @@
       <c r="D185" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E185" s="2"/>
+      <c r="E185" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>32</v>
       </c>
@@ -4314,10 +4354,12 @@
       <c r="D186" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E186" s="2"/>
+      <c r="E186" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>34</v>
       </c>
@@ -4330,10 +4372,12 @@
       <c r="D187" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E187" s="2"/>
+      <c r="E187" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>36</v>
       </c>
@@ -4346,10 +4390,12 @@
       <c r="D188" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E188" s="2"/>
+      <c r="E188" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>38</v>
       </c>
@@ -4362,10 +4408,12 @@
       <c r="D189" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E189" s="2"/>
+      <c r="E189" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>40</v>
       </c>
@@ -4378,10 +4426,12 @@
       <c r="D190" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E190" s="2"/>
+      <c r="E190" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>22</v>
       </c>
@@ -4401,7 +4451,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>26</v>
       </c>
@@ -4441,7 +4491,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>30</v>
       </c>
@@ -4461,7 +4511,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>32</v>
       </c>
@@ -4481,7 +4531,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>34</v>
       </c>
@@ -4501,7 +4551,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>36</v>
       </c>
@@ -4521,7 +4571,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>38</v>
       </c>
@@ -4541,7 +4591,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>40</v>
       </c>
@@ -4561,7 +4611,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>22</v>
       </c>
@@ -4581,7 +4631,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>26</v>
       </c>
@@ -4621,7 +4671,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>30</v>
       </c>
@@ -4641,7 +4691,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>32</v>
       </c>
@@ -4661,7 +4711,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>34</v>
       </c>
@@ -4681,7 +4731,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>36</v>
       </c>
@@ -4701,7 +4751,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>38</v>
       </c>
@@ -4721,7 +4771,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>40</v>
       </c>
@@ -4741,7 +4791,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>22</v>
       </c>
@@ -4761,7 +4811,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>26</v>
       </c>
@@ -4801,7 +4851,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>30</v>
       </c>
@@ -4821,7 +4871,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>32</v>
       </c>
@@ -4841,7 +4891,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>34</v>
       </c>
@@ -4861,7 +4911,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>36</v>
       </c>
@@ -4881,7 +4931,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>38</v>
       </c>
@@ -4901,7 +4951,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>40</v>
       </c>
@@ -4921,7 +4971,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>22</v>
       </c>
@@ -4941,7 +4991,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>26</v>
       </c>
@@ -4981,7 +5031,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>30</v>
       </c>
@@ -5001,7 +5051,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>32</v>
       </c>
@@ -5021,7 +5071,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>34</v>
       </c>
@@ -5041,7 +5091,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>36</v>
       </c>
@@ -5061,7 +5111,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>38</v>
       </c>
@@ -5081,7 +5131,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>40</v>
       </c>
@@ -5101,7 +5151,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>22</v>
       </c>
@@ -5121,7 +5171,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>26</v>
       </c>
@@ -5161,7 +5211,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>30</v>
       </c>
@@ -5181,7 +5231,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>32</v>
       </c>
@@ -5201,7 +5251,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>34</v>
       </c>
@@ -5221,7 +5271,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>36</v>
       </c>
@@ -5241,7 +5291,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>38</v>
       </c>
@@ -5261,7 +5311,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>40</v>
       </c>
@@ -5281,7 +5331,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>22</v>
       </c>
@@ -5301,7 +5351,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>26</v>
       </c>
@@ -5341,7 +5391,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>30</v>
       </c>
@@ -5361,7 +5411,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>32</v>
       </c>
@@ -5381,7 +5431,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>34</v>
       </c>
@@ -5401,7 +5451,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>36</v>
       </c>
@@ -5421,7 +5471,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>38</v>
       </c>
@@ -5441,7 +5491,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>40</v>
       </c>
@@ -5461,7 +5511,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>22</v>
       </c>
@@ -5474,10 +5524,14 @@
       <c r="D245" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-    </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E245" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F245" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>26</v>
       </c>
@@ -5490,8 +5544,12 @@
       <c r="D246" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
+      <c r="E246" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F246" s="3">
+        <v>0.70833333333333337</v>
+      </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
@@ -5500,16 +5558,20 @@
       <c r="B247" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C247" s="4" t="s">
-        <v>77</v>
+      <c r="C247" s="4">
+        <v>46019</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-    </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E247" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F247" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>30</v>
       </c>
@@ -5522,10 +5584,14 @@
       <c r="D248" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-    </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E248" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F248" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>32</v>
       </c>
@@ -5538,10 +5604,14 @@
       <c r="D249" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-    </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E249" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F249" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>34</v>
       </c>
@@ -5554,10 +5624,14 @@
       <c r="D250" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-    </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E250" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F250" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>36</v>
       </c>
@@ -5570,10 +5644,14 @@
       <c r="D251" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-    </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E251" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F251" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>38</v>
       </c>
@@ -5586,10 +5664,14 @@
       <c r="D252" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-    </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E252" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F252" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>40</v>
       </c>
@@ -5602,17 +5684,15 @@
       <c r="D253" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
+      <c r="E253" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F253" s="3">
+        <v>0.70833333333333337</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V253" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Dương Công Phúc"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V253" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>